--- a/www/IndicatorsPerCountry/Slovenia_GDPperCapita_TerritorialRef_1992_2012_CCode_705.xlsx
+++ b/www/IndicatorsPerCountry/Slovenia_GDPperCapita_TerritorialRef_1992_2012_CCode_705.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Slovenia_GDPperCapita_TerritorialRef_1992_2012_CCode_705.xlsx
+++ b/www/IndicatorsPerCountry/Slovenia_GDPperCapita_TerritorialRef_1992_2012_CCode_705.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2347.463813</t>
-  </si>
-  <si>
-    <t>2450.859241</t>
-  </si>
-  <si>
-    <t>2758.335767</t>
-  </si>
-  <si>
-    <t>2984.872956</t>
-  </si>
-  <si>
-    <t>2917.859996</t>
-  </si>
-  <si>
-    <t>3241.875435</t>
-  </si>
-  <si>
-    <t>3583.654682</t>
-  </si>
-  <si>
-    <t>3762.24123</t>
-  </si>
-  <si>
-    <t>4276.138123</t>
-  </si>
-  <si>
-    <t>4630.463522</t>
-  </si>
-  <si>
-    <t>4791.075224</t>
-  </si>
-  <si>
-    <t>5294.159706</t>
-  </si>
-  <si>
-    <t>5743.939398</t>
-  </si>
-  <si>
-    <t>5722.685209</t>
-  </si>
-  <si>
-    <t>5985.595829</t>
-  </si>
-  <si>
-    <t>6124.969715</t>
-  </si>
-  <si>
-    <t>6458.753731</t>
-  </si>
-  <si>
-    <t>7027.002785</t>
-  </si>
-  <si>
-    <t>7641.208961</t>
-  </si>
-  <si>
-    <t>8150.3194</t>
-  </si>
-  <si>
-    <t>8515.679895</t>
-  </si>
-  <si>
-    <t>8999.37701</t>
-  </si>
-  <si>
-    <t>9799.6734</t>
-  </si>
-  <si>
-    <t>10267.89919</t>
-  </si>
-  <si>
-    <t>10421.82226</t>
-  </si>
-  <si>
-    <t>11097.84624</t>
-  </si>
-  <si>
-    <t>11944.51274</t>
-  </si>
-  <si>
-    <t>12752.20181</t>
-  </si>
-  <si>
-    <t>12623.20296</t>
-  </si>
-  <si>
-    <t>12444.4982</t>
-  </si>
-  <si>
-    <t>12390.47809</t>
-  </si>
-  <si>
-    <t>12423.8501</t>
-  </si>
-  <si>
-    <t>12654.04344</t>
-  </si>
-  <si>
-    <t>12751.89828</t>
-  </si>
-  <si>
-    <t>13104.72999</t>
-  </si>
-  <si>
-    <t>12926.10886</t>
-  </si>
-  <si>
-    <t>12513.24398</t>
-  </si>
-  <si>
-    <t>12382.68524</t>
-  </si>
-  <si>
-    <t>11350.5538738</t>
-  </si>
-  <si>
-    <t>10321.6105058</t>
-  </si>
-  <si>
-    <t>9782.46992238</t>
-  </si>
-  <si>
-    <t>10212.9243404</t>
-  </si>
-  <si>
-    <t>10637.658434</t>
-  </si>
-  <si>
-    <t>11018.7750533</t>
-  </si>
-  <si>
-    <t>11424.2030517</t>
-  </si>
-  <si>
-    <t>12008.3911904</t>
-  </si>
-  <si>
-    <t>12494.6187723</t>
-  </si>
-  <si>
-    <t>13152.4560889</t>
-  </si>
-  <si>
-    <t>13667.2852932</t>
-  </si>
-  <si>
-    <t>14009.7897222</t>
-  </si>
-  <si>
-    <t>14478.8563306</t>
-  </si>
-  <si>
-    <t>14849.962382</t>
-  </si>
-  <si>
-    <t>15497.0740902</t>
-  </si>
-  <si>
-    <t>16092.7028779</t>
-  </si>
-  <si>
-    <t>16877.8174145</t>
-  </si>
-  <si>
-    <t>18287.8774019</t>
-  </si>
-  <si>
-    <t>18745.0743369</t>
-  </si>
-  <si>
-    <t>17292.7405342</t>
-  </si>
-  <si>
-    <t>17529.4267286</t>
+    <t>3934</t>
+  </si>
+  <si>
+    <t>4106</t>
+  </si>
+  <si>
+    <t>4623</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>4889</t>
+  </si>
+  <si>
+    <t>5432</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>6304</t>
+  </si>
+  <si>
+    <t>7165</t>
+  </si>
+  <si>
+    <t>7760</t>
+  </si>
+  <si>
+    <t>8027</t>
+  </si>
+  <si>
+    <t>8871</t>
+  </si>
+  <si>
+    <t>9624</t>
+  </si>
+  <si>
+    <t>9589</t>
+  </si>
+  <si>
+    <t>10029</t>
+  </si>
+  <si>
+    <t>10264</t>
+  </si>
+  <si>
+    <t>10822</t>
+  </si>
+  <si>
+    <t>11775</t>
+  </si>
+  <si>
+    <t>12803</t>
+  </si>
+  <si>
+    <t>13657</t>
+  </si>
+  <si>
+    <t>14269</t>
+  </si>
+  <si>
+    <t>15079</t>
+  </si>
+  <si>
+    <t>16420</t>
+  </si>
+  <si>
+    <t>17205</t>
+  </si>
+  <si>
+    <t>17462</t>
+  </si>
+  <si>
+    <t>18595</t>
+  </si>
+  <si>
+    <t>20014</t>
+  </si>
+  <si>
+    <t>21367</t>
+  </si>
+  <si>
+    <t>21151</t>
+  </si>
+  <si>
+    <t>20929</t>
+  </si>
+  <si>
+    <t>20535</t>
+  </si>
+  <si>
+    <t>20451</t>
+  </si>
+  <si>
+    <t>20650</t>
+  </si>
+  <si>
+    <t>20663</t>
+  </si>
+  <si>
+    <t>21122</t>
+  </si>
+  <si>
+    <t>20851</t>
+  </si>
+  <si>
+    <t>20083</t>
+  </si>
+  <si>
+    <t>19837</t>
+  </si>
+  <si>
+    <t>18093</t>
+  </si>
+  <si>
+    <t>16401.95914321</t>
+  </si>
+  <si>
+    <t>15462.7101618003</t>
+  </si>
+  <si>
+    <t>15872.1202626296</t>
+  </si>
+  <si>
+    <t>16664.70579348</t>
+  </si>
+  <si>
+    <t>17816.8010076464</t>
+  </si>
+  <si>
+    <t>18376.2462010584</t>
+  </si>
+  <si>
+    <t>19258.9458702082</t>
+  </si>
+  <si>
+    <t>19851.0571234378</t>
+  </si>
+  <si>
+    <t>20793.9180282206</t>
+  </si>
+  <si>
+    <t>21501.3367278983</t>
+  </si>
+  <si>
+    <t>22006.9537877351</t>
+  </si>
+  <si>
+    <t>22725.3119846003</t>
+  </si>
+  <si>
+    <t>23257.421804062</t>
+  </si>
+  <si>
+    <t>24150.5840374106</t>
+  </si>
+  <si>
+    <t>24966.9387886715</t>
+  </si>
+  <si>
+    <t>26182.7796675607</t>
+  </si>
+  <si>
+    <t>27832.7637848008</t>
+  </si>
+  <si>
+    <t>28473.5957291968</t>
+  </si>
+  <si>
+    <t>25905.5126735662</t>
+  </si>
+  <si>
+    <t>26000.9206515415</t>
+  </si>
+  <si>
+    <t>26004</t>
+  </si>
+  <si>
+    <t>25252</t>
+  </si>
+  <si>
+    <t>24944</t>
+  </si>
+  <si>
+    <t>25693</t>
+  </si>
+  <si>
+    <t>26268</t>
+  </si>
+  <si>
+    <t>26908</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1335,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1452,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
